--- a/team_specific_matrix/Illinois_B.xlsx
+++ b/team_specific_matrix/Illinois_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1924686192468619</v>
+        <v>0.1909650924024641</v>
       </c>
       <c r="C2">
-        <v>0.5564853556485355</v>
+        <v>0.5585215605749486</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01255230125523013</v>
+        <v>0.01232032854209446</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1317991631799163</v>
+        <v>0.1314168377823409</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1066945606694561</v>
+        <v>0.106776180698152</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01094890510948905</v>
+        <v>0.01071428571428571</v>
       </c>
       <c r="C3">
-        <v>0.0218978102189781</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01824817518248175</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7408759124087592</v>
+        <v>0.7392857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.208029197080292</v>
+        <v>0.2107142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03157894736842105</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6736842105263158</v>
+        <v>0.6836734693877551</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2947368421052631</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05729166666666666</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01822916666666667</v>
+        <v>0.01758793969849246</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06770833333333333</v>
+        <v>0.0678391959798995</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2473958333333333</v>
+        <v>0.2462311557788945</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01302083333333333</v>
+        <v>0.01256281407035176</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1770833333333333</v>
+        <v>0.1758793969849246</v>
       </c>
       <c r="R6">
-        <v>0.07291666666666667</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="S6">
-        <v>0.3463541666666667</v>
+        <v>0.3492462311557789</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1002444987775061</v>
+        <v>0.09832134292565947</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02689486552567237</v>
+        <v>0.026378896882494</v>
       </c>
       <c r="E7">
-        <v>0.004889975550122249</v>
+        <v>0.004796163069544364</v>
       </c>
       <c r="F7">
-        <v>0.05134474327628362</v>
+        <v>0.05035971223021583</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1271393643031785</v>
+        <v>0.1270983213429256</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01222493887530562</v>
+        <v>0.01199040767386091</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2200488997555012</v>
+        <v>0.2206235011990408</v>
       </c>
       <c r="R7">
-        <v>0.03667481662591687</v>
+        <v>0.03836930455635491</v>
       </c>
       <c r="S7">
-        <v>0.4205378973105134</v>
+        <v>0.4220623501199041</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07488479262672811</v>
+        <v>0.07427937915742794</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02534562211981567</v>
+        <v>0.02549889135254989</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06451612903225806</v>
+        <v>0.06430155210643015</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1140552995391705</v>
+        <v>0.1130820399113082</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0195852534562212</v>
+        <v>0.0188470066518847</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2004608294930876</v>
+        <v>0.2028824833702882</v>
       </c>
       <c r="R8">
-        <v>0.07488479262672811</v>
+        <v>0.07538802660753881</v>
       </c>
       <c r="S8">
-        <v>0.4262672811059908</v>
+        <v>0.4257206208425721</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08695652173913043</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02173913043478261</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0516304347826087</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1032608695652174</v>
+        <v>0.1084656084656085</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01630434782608696</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1739130434782609</v>
+        <v>0.1719576719576719</v>
       </c>
       <c r="R9">
-        <v>0.09239130434782608</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="S9">
-        <v>0.453804347826087</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09604268563806136</v>
+        <v>0.09405728943993159</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02267674522009782</v>
+        <v>0.02265925609234716</v>
       </c>
       <c r="E10">
-        <v>0.0008892841262783459</v>
+        <v>0.0008550662676357417</v>
       </c>
       <c r="F10">
-        <v>0.06491774121831925</v>
+        <v>0.06584010260795212</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1116051578479324</v>
+        <v>0.1120136810602822</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01333926189417519</v>
+        <v>0.013253527148354</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2254335260115607</v>
+        <v>0.2248824283882001</v>
       </c>
       <c r="R10">
-        <v>0.0773677189862161</v>
+        <v>0.07695596408721676</v>
       </c>
       <c r="S10">
-        <v>0.3877278790573588</v>
+        <v>0.3894826849080804</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1255813953488372</v>
+        <v>0.1261398176291793</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09147286821705426</v>
+        <v>0.08966565349544073</v>
       </c>
       <c r="K11">
-        <v>0.1906976744186047</v>
+        <v>0.1899696048632219</v>
       </c>
       <c r="L11">
-        <v>0.5829457364341085</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009302325581395349</v>
+        <v>0.00911854103343465</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7435233160621761</v>
+        <v>0.7398989898989899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1839378238341969</v>
+        <v>0.1868686868686869</v>
       </c>
       <c r="K12">
-        <v>0.005181347150259068</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="L12">
-        <v>0.02072538860103627</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04663212435233161</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01401869158878505</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1705607476635514</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="I15">
-        <v>0.08177570093457943</v>
+        <v>0.08558558558558559</v>
       </c>
       <c r="J15">
-        <v>0.3154205607476636</v>
+        <v>0.3198198198198198</v>
       </c>
       <c r="K15">
-        <v>0.0911214953271028</v>
+        <v>0.08783783783783784</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007009345794392523</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09579439252336448</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2242990654205607</v>
+        <v>0.222972972972973</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01875</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.178125</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="I16">
-        <v>0.09375</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="J16">
-        <v>0.390625</v>
+        <v>0.3914373088685015</v>
       </c>
       <c r="K16">
-        <v>0.1375</v>
+        <v>0.1345565749235474</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0125</v>
+        <v>0.01223241590214067</v>
       </c>
       <c r="N16">
-        <v>0.003125</v>
+        <v>0.003058103975535168</v>
       </c>
       <c r="O16">
-        <v>0.059375</v>
+        <v>0.06116207951070336</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.10625</v>
+        <v>0.1131498470948012</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01997780244173141</v>
+        <v>0.01929260450160772</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1920088790233074</v>
+        <v>0.1939978563772776</v>
       </c>
       <c r="I17">
-        <v>0.09988901220865705</v>
+        <v>0.09646302250803858</v>
       </c>
       <c r="J17">
-        <v>0.3729189789123196</v>
+        <v>0.3762057877813505</v>
       </c>
       <c r="K17">
-        <v>0.1043285238623751</v>
+        <v>0.1018220793140407</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01775804661487236</v>
+        <v>0.01714898177920686</v>
       </c>
       <c r="N17">
-        <v>0.001109877913429523</v>
+        <v>0.001071811361200429</v>
       </c>
       <c r="O17">
-        <v>0.05660377358490566</v>
+        <v>0.05894962486602358</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1354051054384018</v>
+        <v>0.135048231511254</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0189873417721519</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1645569620253164</v>
+        <v>0.1676829268292683</v>
       </c>
       <c r="I18">
-        <v>0.09177215189873418</v>
+        <v>0.08841463414634146</v>
       </c>
       <c r="J18">
-        <v>0.4303797468354431</v>
+        <v>0.4298780487804878</v>
       </c>
       <c r="K18">
-        <v>0.09810126582278481</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00949367088607595</v>
+        <v>0.009146341463414634</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05063291139240506</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1360759493670886</v>
+        <v>0.1402439024390244</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01656565656565656</v>
+        <v>0.01636151149201403</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2092929292929293</v>
+        <v>0.2095831710167511</v>
       </c>
       <c r="I19">
-        <v>0.07636363636363637</v>
+        <v>0.07635372029606545</v>
       </c>
       <c r="J19">
-        <v>0.336969696969697</v>
+        <v>0.3393065835605765</v>
       </c>
       <c r="K19">
-        <v>0.1248484848484848</v>
+        <v>0.1238800155823919</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02828282828282828</v>
+        <v>0.02726918582002337</v>
       </c>
       <c r="N19">
-        <v>0.001616161616161616</v>
+        <v>0.001558239189715621</v>
       </c>
       <c r="O19">
-        <v>0.07191919191919192</v>
+        <v>0.07128944292948967</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1341414141414141</v>
+        <v>0.1343981301129723</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Illinois_B.xlsx
+++ b/team_specific_matrix/Illinois_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1909650924024641</v>
+        <v>0.1918367346938775</v>
       </c>
       <c r="C2">
-        <v>0.5585215605749486</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01232032854209446</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1314168377823409</v>
+        <v>0.1306122448979592</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.106776180698152</v>
+        <v>0.1081632653061225</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01071428571428571</v>
+        <v>0.01067615658362989</v>
       </c>
       <c r="C3">
-        <v>0.02142857142857143</v>
+        <v>0.02135231316725979</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01785714285714286</v>
+        <v>0.01779359430604982</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7392857142857143</v>
+        <v>0.7402135231316725</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2107142857142857</v>
+        <v>0.2099644128113879</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03061224489795918</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6836734693877551</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.2828282828282828</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05527638190954774</v>
+        <v>0.05665024630541872</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01758793969849246</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0678391959798995</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2462311557788945</v>
+        <v>0.2438423645320197</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01256281407035176</v>
+        <v>0.01231527093596059</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1758793969849246</v>
+        <v>0.1748768472906404</v>
       </c>
       <c r="R6">
-        <v>0.07537688442211055</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="S6">
-        <v>0.3492462311557789</v>
+        <v>0.3522167487684729</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09832134292565947</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.026378896882494</v>
+        <v>0.02625298329355609</v>
       </c>
       <c r="E7">
-        <v>0.004796163069544364</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="F7">
-        <v>0.05035971223021583</v>
+        <v>0.05011933174224344</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1270983213429256</v>
+        <v>0.1264916467780429</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01199040767386091</v>
+        <v>0.01193317422434368</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2206235011990408</v>
+        <v>0.2219570405727924</v>
       </c>
       <c r="R7">
-        <v>0.03836930455635491</v>
+        <v>0.03818615751789976</v>
       </c>
       <c r="S7">
-        <v>0.4220623501199041</v>
+        <v>0.4224343675417661</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07427937915742794</v>
+        <v>0.07367280606717226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02549889135254989</v>
+        <v>0.02491874322860238</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06430155210643015</v>
+        <v>0.06392199349945829</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1130820399113082</v>
+        <v>0.1115926327193933</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0188470066518847</v>
+        <v>0.01841820151679307</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2028824833702882</v>
+        <v>0.2047670639219935</v>
       </c>
       <c r="R8">
-        <v>0.07538802660753881</v>
+        <v>0.07583965330444203</v>
       </c>
       <c r="S8">
-        <v>0.4257206208425721</v>
+        <v>0.4268689057421452</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08994708994708994</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02116402116402116</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05291005291005291</v>
+        <v>0.05440414507772021</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1084656084656085</v>
+        <v>0.1088082901554404</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02116402116402116</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1719576719576719</v>
+        <v>0.1735751295336788</v>
       </c>
       <c r="R9">
-        <v>0.08994708994708994</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="S9">
-        <v>0.4444444444444444</v>
+        <v>0.4455958549222798</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09405728943993159</v>
+        <v>0.09297433740008414</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02265925609234716</v>
+        <v>0.02271771140092554</v>
       </c>
       <c r="E10">
-        <v>0.0008550662676357417</v>
+        <v>0.0008413967185527977</v>
       </c>
       <c r="F10">
-        <v>0.06584010260795212</v>
+        <v>0.06604964240639462</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1120136810602822</v>
+        <v>0.1127471602860749</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.013253527148354</v>
+        <v>0.01304164913756836</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2248824283882001</v>
+        <v>0.2254943205721498</v>
       </c>
       <c r="R10">
-        <v>0.07695596408721676</v>
+        <v>0.07867059318468658</v>
       </c>
       <c r="S10">
-        <v>0.3894826849080804</v>
+        <v>0.3874631888935633</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1261398176291793</v>
+        <v>0.1257575757575758</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08966565349544073</v>
+        <v>0.0893939393939394</v>
       </c>
       <c r="K11">
-        <v>0.1899696048632219</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="L11">
-        <v>0.5851063829787234</v>
+        <v>0.5863636363636363</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00911854103343465</v>
+        <v>0.00909090909090909</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7398989898989899</v>
+        <v>0.7386934673366834</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1868686868686869</v>
+        <v>0.185929648241206</v>
       </c>
       <c r="K12">
-        <v>0.005050505050505051</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="L12">
-        <v>0.02272727272727273</v>
+        <v>0.02261306532663317</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04545454545454546</v>
+        <v>0.04773869346733668</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5842696629213483</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3483146067415731</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06741573033707865</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01351351351351351</v>
+        <v>0.01541850220264317</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1689189189189189</v>
+        <v>0.1696035242290749</v>
       </c>
       <c r="I15">
-        <v>0.08558558558558559</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="J15">
-        <v>0.3198198198198198</v>
+        <v>0.3215859030837004</v>
       </c>
       <c r="K15">
-        <v>0.08783783783783784</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006756756756756757</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0945945945945946</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.222972972972973</v>
+        <v>0.2202643171806167</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01834862385321101</v>
+        <v>0.0182370820668693</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1743119266055046</v>
+        <v>0.1762917933130699</v>
       </c>
       <c r="I16">
-        <v>0.09174311926605505</v>
+        <v>0.0911854103343465</v>
       </c>
       <c r="J16">
-        <v>0.3914373088685015</v>
+        <v>0.39209726443769</v>
       </c>
       <c r="K16">
-        <v>0.1345565749235474</v>
+        <v>0.1337386018237082</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01223241590214067</v>
+        <v>0.0121580547112462</v>
       </c>
       <c r="N16">
-        <v>0.003058103975535168</v>
+        <v>0.00303951367781155</v>
       </c>
       <c r="O16">
-        <v>0.06116207951070336</v>
+        <v>0.060790273556231</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1131498470948012</v>
+        <v>0.1124620060790274</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01929260450160772</v>
+        <v>0.01888772298006296</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1939978563772776</v>
+        <v>0.1951731374606506</v>
       </c>
       <c r="I17">
-        <v>0.09646302250803858</v>
+        <v>0.09548793284365163</v>
       </c>
       <c r="J17">
-        <v>0.3762057877813505</v>
+        <v>0.3767051416579223</v>
       </c>
       <c r="K17">
-        <v>0.1018220793140407</v>
+        <v>0.1017838405036726</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01714898177920686</v>
+        <v>0.0167890870933893</v>
       </c>
       <c r="N17">
-        <v>0.001071811361200429</v>
+        <v>0.001049317943336831</v>
       </c>
       <c r="O17">
-        <v>0.05894962486602358</v>
+        <v>0.0608604407135362</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.135048231511254</v>
+        <v>0.1332633788037775</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01829268292682927</v>
+        <v>0.01780415430267062</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1676829268292683</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="I18">
-        <v>0.08841463414634146</v>
+        <v>0.09495548961424333</v>
       </c>
       <c r="J18">
-        <v>0.4298780487804878</v>
+        <v>0.4243323442136498</v>
       </c>
       <c r="K18">
-        <v>0.0975609756097561</v>
+        <v>0.09495548961424333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009146341463414634</v>
+        <v>0.008902077151335312</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04878048780487805</v>
+        <v>0.05044510385756677</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1402439024390244</v>
+        <v>0.1364985163204748</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01636151149201403</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2095831710167511</v>
+        <v>0.2106881968473664</v>
       </c>
       <c r="I19">
-        <v>0.07635372029606545</v>
+        <v>0.07650903498654364</v>
       </c>
       <c r="J19">
-        <v>0.3393065835605765</v>
+        <v>0.340638216070742</v>
       </c>
       <c r="K19">
-        <v>0.1238800155823919</v>
+        <v>0.1222606689734717</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02726918582002337</v>
+        <v>0.02691272587466359</v>
       </c>
       <c r="N19">
-        <v>0.001558239189715621</v>
+        <v>0.001537870049980777</v>
       </c>
       <c r="O19">
-        <v>0.07128944292948967</v>
+        <v>0.0722798923490965</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1343981301129723</v>
+        <v>0.1330257593233372</v>
       </c>
     </row>
   </sheetData>
